--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +540,10 @@
         <v>6.920255</v>
       </c>
       <c r="I2">
-        <v>0.8617934705859058</v>
+        <v>0.8222690533928816</v>
       </c>
       <c r="J2">
-        <v>0.8617934705859057</v>
+        <v>0.8222690533928814</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.273058</v>
+        <v>4.132875333333334</v>
       </c>
       <c r="N2">
-        <v>3.819174</v>
+        <v>12.398626</v>
       </c>
       <c r="O2">
-        <v>0.1826308343983922</v>
+        <v>0.391502049440379</v>
       </c>
       <c r="P2">
-        <v>0.1826308343983922</v>
+        <v>0.3915020494403789</v>
       </c>
       <c r="Q2">
-        <v>2.936628663263333</v>
+        <v>9.533517063292223</v>
       </c>
       <c r="R2">
-        <v>26.42965796937</v>
+        <v>85.80165356963001</v>
       </c>
       <c r="S2">
-        <v>0.1573900606121903</v>
+        <v>0.3219200195947136</v>
       </c>
       <c r="T2">
-        <v>0.1573900606121902</v>
+        <v>0.3219200195947134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +602,10 @@
         <v>6.920255</v>
       </c>
       <c r="I3">
-        <v>0.8617934705859058</v>
+        <v>0.8222690533928816</v>
       </c>
       <c r="J3">
-        <v>0.8617934705859057</v>
+        <v>0.8222690533928814</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +620,10 @@
         <v>15.282439</v>
       </c>
       <c r="O3">
-        <v>0.7307979647464429</v>
+        <v>0.4825620346115429</v>
       </c>
       <c r="P3">
-        <v>0.7307979647464428</v>
+        <v>0.4825620346115428</v>
       </c>
       <c r="Q3">
         <v>11.75093054466056</v>
@@ -635,10 +632,10 @@
         <v>105.758374901945</v>
       </c>
       <c r="S3">
-        <v>0.6297969143359534</v>
+        <v>0.3967958274033763</v>
       </c>
       <c r="T3">
-        <v>0.6297969143359533</v>
+        <v>0.3967958274033762</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +664,10 @@
         <v>6.920255</v>
       </c>
       <c r="I4">
-        <v>0.8617934705859058</v>
+        <v>0.8222690533928816</v>
       </c>
       <c r="J4">
-        <v>0.8617934705859057</v>
+        <v>0.8222690533928814</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5906476666666666</v>
+        <v>1.329437333333333</v>
       </c>
       <c r="N4">
-        <v>1.771943</v>
+        <v>3.988312</v>
       </c>
       <c r="O4">
-        <v>0.08473335558850953</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="P4">
-        <v>0.08473335558850953</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="Q4">
-        <v>1.362477489496111</v>
+        <v>3.066681784395556</v>
       </c>
       <c r="R4">
-        <v>12.262297405465</v>
+        <v>27.60013605956</v>
       </c>
       <c r="S4">
-        <v>0.07302265258701128</v>
+        <v>0.1035532063947917</v>
       </c>
       <c r="T4">
-        <v>0.07302265258701128</v>
+        <v>0.1035532063947917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.306751666666667</v>
+        <v>0.4985973333333333</v>
       </c>
       <c r="H5">
-        <v>6.920255</v>
+        <v>1.495792</v>
       </c>
       <c r="I5">
-        <v>0.8617934705859058</v>
+        <v>0.1777309466071186</v>
       </c>
       <c r="J5">
-        <v>0.8617934705859057</v>
+        <v>0.1777309466071185</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.012811</v>
+        <v>4.132875333333334</v>
       </c>
       <c r="N5">
-        <v>0.03843299999999999</v>
+        <v>12.398626</v>
       </c>
       <c r="O5">
-        <v>0.00183784526665541</v>
+        <v>0.391502049440379</v>
       </c>
       <c r="P5">
-        <v>0.00183784526665541</v>
+        <v>0.3915020494403789</v>
       </c>
       <c r="Q5">
-        <v>0.02955179560166666</v>
+        <v>2.060640620199111</v>
       </c>
       <c r="R5">
-        <v>0.265966160415</v>
+        <v>18.545765581792</v>
       </c>
       <c r="S5">
-        <v>0.001583843050750845</v>
+        <v>0.06958202984566549</v>
       </c>
       <c r="T5">
-        <v>0.001583843050750845</v>
+        <v>0.06958202984566544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +773,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3699356666666667</v>
+        <v>0.4985973333333333</v>
       </c>
       <c r="H6">
-        <v>1.109807</v>
+        <v>1.495792</v>
       </c>
       <c r="I6">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071186</v>
       </c>
       <c r="J6">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071185</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.273058</v>
+        <v>5.094146333333334</v>
       </c>
       <c r="N6">
-        <v>3.819174</v>
+        <v>15.282439</v>
       </c>
       <c r="O6">
-        <v>0.1826308343983922</v>
+        <v>0.4825620346115429</v>
       </c>
       <c r="P6">
-        <v>0.1826308343983922</v>
+        <v>0.4825620346115428</v>
       </c>
       <c r="Q6">
-        <v>0.4709495599353333</v>
+        <v>2.539927777409778</v>
       </c>
       <c r="R6">
-        <v>4.238546039418</v>
+        <v>22.859349996688</v>
       </c>
       <c r="S6">
-        <v>0.02524077378620196</v>
+        <v>0.08576620720816662</v>
       </c>
       <c r="T6">
-        <v>0.02524077378620196</v>
+        <v>0.08576620720816659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +835,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3699356666666667</v>
+        <v>0.4985973333333333</v>
       </c>
       <c r="H7">
-        <v>1.109807</v>
+        <v>1.495792</v>
       </c>
       <c r="I7">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071186</v>
       </c>
       <c r="J7">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071185</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.094146333333334</v>
+        <v>1.329437333333333</v>
       </c>
       <c r="N7">
-        <v>15.282439</v>
+        <v>3.988312</v>
       </c>
       <c r="O7">
-        <v>0.7307979647464429</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="P7">
-        <v>0.7307979647464428</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="Q7">
-        <v>1.884506419919222</v>
+        <v>0.6628539092337778</v>
       </c>
       <c r="R7">
-        <v>16.960557779273</v>
+        <v>5.965685183104</v>
       </c>
       <c r="S7">
-        <v>0.1010010504104894</v>
+        <v>0.02238270955328645</v>
       </c>
       <c r="T7">
-        <v>0.1010010504104894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.3699356666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.109807</v>
-      </c>
-      <c r="I8">
-        <v>0.1382065294140942</v>
-      </c>
-      <c r="J8">
-        <v>0.1382065294140942</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.5906476666666666</v>
-      </c>
-      <c r="N8">
-        <v>1.771943</v>
-      </c>
-      <c r="O8">
-        <v>0.08473335558850953</v>
-      </c>
-      <c r="P8">
-        <v>0.08473335558850953</v>
-      </c>
-      <c r="Q8">
-        <v>0.2185016383334444</v>
-      </c>
-      <c r="R8">
-        <v>1.966514745001</v>
-      </c>
-      <c r="S8">
-        <v>0.01171070300149825</v>
-      </c>
-      <c r="T8">
-        <v>0.01171070300149824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.3699356666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.109807</v>
-      </c>
-      <c r="I9">
-        <v>0.1382065294140942</v>
-      </c>
-      <c r="J9">
-        <v>0.1382065294140942</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.012811</v>
-      </c>
-      <c r="N9">
-        <v>0.03843299999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.00183784526665541</v>
-      </c>
-      <c r="P9">
-        <v>0.00183784526665541</v>
-      </c>
-      <c r="Q9">
-        <v>0.004739245825666666</v>
-      </c>
-      <c r="R9">
-        <v>0.042653212431</v>
-      </c>
-      <c r="S9">
-        <v>0.0002540022159045647</v>
-      </c>
-      <c r="T9">
-        <v>0.0002540022159045646</v>
+        <v>0.02238270955328645</v>
       </c>
     </row>
   </sheetData>
